--- a/FIN 401/Week 2/capital budget.xlsx
+++ b/FIN 401/Week 2/capital budget.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savag\Dropbox\PC\Desktop\Spring-2022\FIN 401\Week 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bailey\Desktop\Spring-2022\FIN 401\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89D1CA4C-12D5-4CDB-B2D0-F05833D3513B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756732B8-840D-47F9-A53B-0269758EA3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99A2BB1B-49E5-4EB0-894D-653E7AC79F23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{99A2BB1B-49E5-4EB0-894D-653E7AC79F23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Project number</t>
   </si>
@@ -54,6 +52,12 @@
   <si>
     <t>IRR</t>
   </si>
+  <si>
+    <t>Project Number</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
@@ -61,7 +65,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -101,14 +105,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -425,16 +431,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B217E5B-C8D3-4E0E-B18D-0653C8CC499C}">
-  <dimension ref="B1:K12"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -604,6 +611,407 @@
         <v>1772.7272727272725</v>
       </c>
     </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>-2000</v>
+      </c>
+      <c r="E18">
+        <v>-2000</v>
+      </c>
+      <c r="F18">
+        <v>-2000</v>
+      </c>
+      <c r="G18">
+        <v>-2000</v>
+      </c>
+      <c r="H18">
+        <v>-2000</v>
+      </c>
+      <c r="I18">
+        <v>-2000</v>
+      </c>
+      <c r="J18">
+        <v>-2000</v>
+      </c>
+      <c r="K18">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>330</v>
+      </c>
+      <c r="E19">
+        <v>1666</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>160</v>
+      </c>
+      <c r="H19">
+        <v>280</v>
+      </c>
+      <c r="I19">
+        <v>2200</v>
+      </c>
+      <c r="J19">
+        <v>1200</v>
+      </c>
+      <c r="K19">
+        <v>-350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>330</v>
+      </c>
+      <c r="E20">
+        <v>334</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>200</v>
+      </c>
+      <c r="H20">
+        <v>280</v>
+      </c>
+      <c r="J20">
+        <v>900</v>
+      </c>
+      <c r="K20">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>330</v>
+      </c>
+      <c r="E21">
+        <v>165</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>350</v>
+      </c>
+      <c r="H21">
+        <v>280</v>
+      </c>
+      <c r="J21">
+        <v>300</v>
+      </c>
+      <c r="K21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>330</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>395</v>
+      </c>
+      <c r="H22">
+        <v>280</v>
+      </c>
+      <c r="J22">
+        <v>90</v>
+      </c>
+      <c r="K22">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>330</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>432</v>
+      </c>
+      <c r="H23">
+        <v>280</v>
+      </c>
+      <c r="J23">
+        <v>70</v>
+      </c>
+      <c r="K23">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>330</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>440</v>
+      </c>
+      <c r="H24">
+        <v>280</v>
+      </c>
+      <c r="K24">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>330</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>442</v>
+      </c>
+      <c r="H25">
+        <v>280</v>
+      </c>
+      <c r="K25">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>444</v>
+      </c>
+      <c r="H26">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>446</v>
+      </c>
+      <c r="H27">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>448</v>
+      </c>
+      <c r="H28">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>450</v>
+      </c>
+      <c r="H29">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>451</v>
+      </c>
+      <c r="H30">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>451</v>
+      </c>
+      <c r="H31">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>452</v>
+      </c>
+      <c r="H32">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <v>10000</v>
+      </c>
+      <c r="G33">
+        <v>-2000</v>
+      </c>
+      <c r="H33">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="7">
+        <f>IRR(D18:D33)</f>
+        <v>0.10865030333732562</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" ref="E36:K36" si="1">IRR(E18:E33)</f>
+        <v>6.3088234267993482E-2</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11326357684480115</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.12328333076588271</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11121604343002223</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.15257139008454979</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1140642023834566</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="8">
+        <f>NPV($C$35,D19:D33)+D18</f>
+        <v>73.085590048400263</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" ref="E37:K37" si="2">NPV($C$35,E19:E33)+E18</f>
+        <v>-85.454545454545496</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="2"/>
+        <v>393.92049369163351</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="2"/>
+        <v>228.22195117578121</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="2"/>
+        <v>129.70226176634105</v>
+      </c>
+      <c r="I37" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="8">
+        <f t="shared" si="2"/>
+        <v>165.04088766912309</v>
+      </c>
+      <c r="K37" s="8">
+        <f t="shared" si="2"/>
+        <v>182.98441061557742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
